--- a/RosreestrOnline/src.xlsx
+++ b/RosreestrOnline/src.xlsx
@@ -11,33 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" iterate="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
-  <si>
-    <t>Немировича-Данченко</t>
-  </si>
-  <si>
-    <t>19-А</t>
-  </si>
-  <si>
-    <t>Уральская</t>
-  </si>
-  <si>
-    <t>Сибирская</t>
-  </si>
-  <si>
-    <t>Уютная</t>
-  </si>
-  <si>
-    <t>Державина</t>
-  </si>
-  <si>
-    <t>Ровный</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Тип</t>
   </si>
@@ -48,23 +27,35 @@
     <t>Дом</t>
   </si>
   <si>
-    <t>Улица</t>
-  </si>
-  <si>
-    <t>Проезд</t>
-  </si>
-  <si>
-    <t>Переулок</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>улица</t>
+  </si>
+  <si>
+    <t>Юбилейная</t>
+  </si>
+  <si>
+    <t>Пушкина</t>
+  </si>
+  <si>
+    <t>Тузовского</t>
+  </si>
+  <si>
+    <t>Мурманская</t>
+  </si>
+  <si>
+    <t>Зыряновская</t>
+  </si>
+  <si>
+    <t>70б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +69,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,11 +104,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E16" sqref="D15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -422,268 +430,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RosreestrOnline/src.xlsx
+++ b/RosreestrOnline/src.xlsx
@@ -11,12 +11,27 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="InputData" localSheetId="0">Лист1!$A$2:$D$406</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="MapInfo2Excel_Dump" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr prompt="0" sourceFile="C:\Users\NECVET~1\AppData\Local\Temp\MIPRO\MapInfo.Application_15716\MapInfo2Excel_Dump.csv" decimal="," thousands=" " tab="0" semicolon="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="58">
   <si>
     <t>Тип</t>
   </si>
@@ -30,32 +45,173 @@
     <t>id</t>
   </si>
   <si>
-    <t>улица</t>
+    <t>Улица</t>
   </si>
   <si>
-    <t>Юбилейная</t>
+    <t>Соревнования</t>
   </si>
   <si>
-    <t>Пушкина</t>
+    <t>Николая Руднева</t>
   </si>
   <si>
-    <t>Тузовского</t>
+    <t>Стахановская</t>
   </si>
   <si>
-    <t>Мурманская</t>
+    <t>Кольчугина</t>
   </si>
   <si>
-    <t>Зыряновская</t>
+    <t>Пирамидная</t>
   </si>
   <si>
-    <t>70б</t>
+    <t>Переулок</t>
+  </si>
+  <si>
+    <t>Желтый</t>
+  </si>
+  <si>
+    <t>Раевского</t>
+  </si>
+  <si>
+    <t>Менделеева</t>
+  </si>
+  <si>
+    <t>Крупской</t>
+  </si>
+  <si>
+    <t>Муромский</t>
+  </si>
+  <si>
+    <t>1-В</t>
+  </si>
+  <si>
+    <t>Литовская</t>
+  </si>
+  <si>
+    <t>Гималайский</t>
+  </si>
+  <si>
+    <t>67-Б</t>
+  </si>
+  <si>
+    <t>Логовая</t>
+  </si>
+  <si>
+    <t>Логовой</t>
+  </si>
+  <si>
+    <t>Гжельская</t>
+  </si>
+  <si>
+    <t>Грозненская</t>
+  </si>
+  <si>
+    <t>Апшеронский</t>
+  </si>
+  <si>
+    <t>Мариупольская</t>
+  </si>
+  <si>
+    <t>Тайшетский</t>
+  </si>
+  <si>
+    <t>Коммунарка</t>
+  </si>
+  <si>
+    <t>Простой</t>
+  </si>
+  <si>
+    <t>Острогорская</t>
+  </si>
+  <si>
+    <t>Областной</t>
+  </si>
+  <si>
+    <t>Ударный</t>
+  </si>
+  <si>
+    <t>Окружной</t>
+  </si>
+  <si>
+    <t>Вишневый</t>
+  </si>
+  <si>
+    <t>Главный</t>
+  </si>
+  <si>
+    <t>Сборная</t>
+  </si>
+  <si>
+    <t>Загорская</t>
+  </si>
+  <si>
+    <t>Инженерный</t>
+  </si>
+  <si>
+    <t>Сивашская</t>
+  </si>
+  <si>
+    <t>Тайлепский</t>
+  </si>
+  <si>
+    <t>Парковая</t>
+  </si>
+  <si>
+    <t>Красноводская</t>
+  </si>
+  <si>
+    <t>Золотой Рог</t>
+  </si>
+  <si>
+    <t>Печерская</t>
+  </si>
+  <si>
+    <t>5-А</t>
+  </si>
+  <si>
+    <t>51-А</t>
+  </si>
+  <si>
+    <t>23-А</t>
+  </si>
+  <si>
+    <t>15-А</t>
+  </si>
+  <si>
+    <t>Перекопная</t>
+  </si>
+  <si>
+    <t>Редутная</t>
+  </si>
+  <si>
+    <t>Антрацитная</t>
+  </si>
+  <si>
+    <t>Гродненская</t>
+  </si>
+  <si>
+    <t>Искитимская</t>
+  </si>
+  <si>
+    <t>Тюменская</t>
+  </si>
+  <si>
+    <t>63-А</t>
+  </si>
+  <si>
+    <t>54-А</t>
+  </si>
+  <si>
+    <t>12-А</t>
+  </si>
+  <si>
+    <t>3-А</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,19 +225,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,15 +247,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -125,6 +264,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="InputData" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="D15:E16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,115 +586,5376 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>61</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>62</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>63</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>64</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>73</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>78</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>86</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>87</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>95</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>96</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>97</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>99</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>100</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>105</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>106</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>107</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>108</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>109</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>110</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>113</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>114</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>115</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>116</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>117</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>118</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>119</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>123</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>130</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>135</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>140</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>144</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>145</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>146</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>147</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>148</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>149</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>153</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>154</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>155</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>156</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>160</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>161</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>165</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>166</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>167</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>168</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>169</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>170</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>172</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>173</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>174</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>176</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>179</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>181</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>182</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>183</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>186</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>190</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>191</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>193</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>194</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>195</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>196</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>197</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>198</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>199</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>200</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>201</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>202</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>203</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>207</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>208</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>209</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>210</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>216</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>217</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>218</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>219</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>221</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>222</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>223</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>224</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>226</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>228</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>232</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>233</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>234</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>237</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>238</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>242</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>243</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>244</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>247</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>250</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>251</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>252</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>255</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>260</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>261</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>265</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>266</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>267</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>268</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>270</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>271</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>272</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>273</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>276</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>278</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>279</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>280</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>281</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>282</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>283</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>284</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>285</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>286</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>287</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>288</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>289</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>290</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>291</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>292</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>295</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>296</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>299</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>301</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D202" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>306</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>307</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>314</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>315</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>318</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D214" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>320</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>321</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>322</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>323</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>325</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>326</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>328</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>329</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D224" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>330</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>331</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>332</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>334</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D229" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>335</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D230" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>336</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D231" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>337</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>338</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>339</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D234" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>340</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>341</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D236" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>342</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>343</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>344</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D239" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>345</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>346</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D241" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>347</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D242" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>348</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D243" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>349</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D244" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>350</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>351</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D246" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>352</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D247" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>353</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D248" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>354</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D249" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>355</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>356</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D251" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>357</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D252" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>358</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D253" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>359</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>360</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>361</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>362</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D257" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>363</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D258" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>364</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>365</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>366</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D261" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>367</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>368</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D263" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>369</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>370</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D265" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>371</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D266" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>372</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>373</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D268" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>374</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D269" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>375</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D270" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>376</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D271" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>377</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>378</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D273" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>379</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>380</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D275" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>381</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D276" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>382</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>383</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>384</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D279" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>385</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>386</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>387</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D282" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>390</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>392</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D287" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>393</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>394</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>395</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D290" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>396</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D291" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>397</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>398</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>399</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>400</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>401</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>402</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>403</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>404</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>405</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>407</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>409</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D304" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>410</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D305" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>411</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D306" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>412</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>413</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>414</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D309" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>415</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>416</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>417</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>418</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>423</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D318" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>424</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D319" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>425</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D320" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>426</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D321" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>427</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D322" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>428</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D323" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>429</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D324" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>430</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>431</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D326" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>432</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D327" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>433</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D328" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>434</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D329" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>437</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D332" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>438</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D333" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>439</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D334" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>440</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D335" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>441</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D336" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>442</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D337" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>443</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D338" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>444</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D339" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>445</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D340" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>446</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D341" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>447</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D342" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>448</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D343" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>449</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D344" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>450</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D345" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>451</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D346" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>452</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D347" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>453</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D348" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>454</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D349" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>455</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D350" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>456</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D351" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>457</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D352" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>458</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D353" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>459</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D354" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>460</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D355" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>461</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D356" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>462</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D357" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>463</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D358" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>464</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D359" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>465</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D360" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>466</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D361" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>467</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D362" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>468</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D363" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>469</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D364" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>470</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D365" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>471</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D366" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>472</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D367" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>473</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D368" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>474</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D369" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>475</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D370" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>476</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D371" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>477</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D372" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>478</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D373" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>479</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D374" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>480</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D375" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>481</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D376" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>482</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D377" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>483</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D378" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>484</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D379" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>485</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D380" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>486</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D381" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>487</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D382" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>488</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D383" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>490</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>491</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D386" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>492</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D387" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>493</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D388" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>494</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D389" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>495</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D390" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>496</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D391" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>497</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D392" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>498</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D393" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>499</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D394" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>500</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D395" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>501</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D396" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>502</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D397" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>503</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D398" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>504</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D399" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>505</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D400" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>506</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>507</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D402" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>508</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D403" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>509</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>510</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>511</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D406" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/RosreestrOnline/src.xlsx
+++ b/RosreestrOnline/src.xlsx
@@ -11,23 +11,8 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="InputData" localSheetId="0">Лист1!$A$2:$D$406</definedName>
-  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="MapInfo2Excel_Dump" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" sourceFile="C:\Users\NECVET~1\AppData\Local\Temp\MIPRO\MapInfo.Application_15716\MapInfo2Excel_Dump.csv" decimal="," thousands=" " tab="0" semicolon="1">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,10 +27,13 @@
     <t>Дом</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Улица</t>
   </si>
   <si>
-    <t>Улица</t>
+    <t>Переулок</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>Соревнования</t>
@@ -61,9 +49,6 @@
   </si>
   <si>
     <t>Пирамидная</t>
-  </si>
-  <si>
-    <t>Переулок</t>
   </si>
   <si>
     <t>Желтый</t>
@@ -264,10 +249,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="InputData" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,12 +541,12 @@
   <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -573,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -590,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>58</v>
@@ -604,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>54</v>
@@ -618,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>59</v>
@@ -632,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>48</v>
@@ -646,10 +627,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>48</v>
@@ -660,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>58</v>
@@ -674,10 +655,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>54</v>
@@ -688,10 +669,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>49</v>
@@ -702,10 +683,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <v>47</v>
@@ -716,10 +697,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>63</v>
@@ -730,10 +711,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>46</v>
@@ -744,10 +725,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>44</v>
@@ -758,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>33</v>
@@ -772,10 +753,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>36</v>
@@ -786,10 +767,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
@@ -800,10 +781,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>42</v>
@@ -814,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -828,10 +809,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>32</v>
@@ -842,10 +823,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <v>30</v>
@@ -856,10 +837,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>26</v>
@@ -870,10 +851,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -884,10 +865,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>18</v>
@@ -898,10 +879,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>15</v>
@@ -912,10 +893,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>14</v>
@@ -926,10 +907,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -940,10 +921,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -954,10 +935,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -968,10 +949,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1">
         <v>25</v>
@@ -982,10 +963,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>17</v>
@@ -996,10 +977,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1010,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
         <v>24</v>
@@ -1024,10 +1005,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>22</v>
@@ -1038,10 +1019,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <v>16</v>
@@ -1052,10 +1033,10 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>12</v>
@@ -1066,10 +1047,10 @@
         <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>10</v>
@@ -1080,10 +1061,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1">
         <v>8</v>
@@ -1094,10 +1075,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -1108,10 +1089,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1">
         <v>15</v>
@@ -1122,10 +1103,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
         <v>19</v>
@@ -1136,10 +1117,10 @@
         <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
         <v>25</v>
@@ -1150,10 +1131,10 @@
         <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1">
         <v>37</v>
@@ -1164,10 +1145,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
         <v>52</v>
@@ -1178,10 +1159,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1">
         <v>54</v>
@@ -1192,10 +1173,10 @@
         <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1">
         <v>45</v>
@@ -1206,10 +1187,10 @@
         <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1">
         <v>46</v>
@@ -1220,10 +1201,10 @@
         <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1">
         <v>38</v>
@@ -1234,10 +1215,10 @@
         <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1">
         <v>36</v>
@@ -1248,10 +1229,10 @@
         <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1">
         <v>32</v>
@@ -1262,10 +1243,10 @@
         <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
         <v>30</v>
@@ -1276,10 +1257,10 @@
         <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1">
         <v>22</v>
@@ -1290,10 +1271,10 @@
         <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
         <v>6</v>
@@ -1304,7 +1285,7 @@
         <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -1318,10 +1299,10 @@
         <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1">
         <v>11</v>
@@ -1332,10 +1313,10 @@
         <v>73</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1">
         <v>29</v>
@@ -1346,10 +1327,10 @@
         <v>74</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1">
         <v>33</v>
@@ -1360,10 +1341,10 @@
         <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
         <v>39</v>
@@ -1374,10 +1355,10 @@
         <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1">
         <v>46</v>
@@ -1388,10 +1369,10 @@
         <v>78</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1">
         <v>26</v>
@@ -1402,10 +1383,10 @@
         <v>82</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1">
         <v>47</v>
@@ -1416,10 +1397,10 @@
         <v>83</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1">
         <v>45</v>
@@ -1430,10 +1411,10 @@
         <v>84</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="1">
         <v>29</v>
@@ -1444,10 +1425,10 @@
         <v>86</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1">
         <v>23</v>
@@ -1458,10 +1439,10 @@
         <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64" s="1">
         <v>19</v>
@@ -1472,7 +1453,7 @@
         <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
@@ -1486,7 +1467,7 @@
         <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -1500,7 +1481,7 @@
         <v>95</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -1514,7 +1495,7 @@
         <v>96</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -1528,7 +1509,7 @@
         <v>97</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -1542,7 +1523,7 @@
         <v>98</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -1556,7 +1537,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -1570,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -1584,7 +1565,7 @@
         <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>13</v>
@@ -1598,7 +1579,7 @@
         <v>106</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -1612,7 +1593,7 @@
         <v>107</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -1626,7 +1607,7 @@
         <v>108</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -1640,7 +1621,7 @@
         <v>109</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -1654,7 +1635,7 @@
         <v>110</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
@@ -1668,7 +1649,7 @@
         <v>112</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
@@ -1682,7 +1663,7 @@
         <v>113</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -1696,7 +1677,7 @@
         <v>114</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -1710,7 +1691,7 @@
         <v>115</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -1724,7 +1705,7 @@
         <v>116</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -1738,7 +1719,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>14</v>
@@ -1752,7 +1733,7 @@
         <v>118</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
@@ -1766,7 +1747,7 @@
         <v>119</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>15</v>
@@ -1785,7 +1766,7 @@
         <v>123</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -1799,7 +1780,7 @@
         <v>130</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>11</v>
@@ -1818,7 +1799,7 @@
         <v>135</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>17</v>
@@ -1832,7 +1813,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>18</v>
@@ -1846,7 +1827,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
@@ -1860,7 +1841,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>13</v>
@@ -1874,7 +1855,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>13</v>
@@ -1888,7 +1869,7 @@
         <v>146</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>13</v>
@@ -1902,7 +1883,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>13</v>
@@ -1916,7 +1897,7 @@
         <v>148</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>13</v>
@@ -1930,7 +1911,7 @@
         <v>149</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>13</v>
@@ -1949,7 +1930,7 @@
         <v>153</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>17</v>
@@ -1963,7 +1944,7 @@
         <v>154</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>17</v>
@@ -1977,7 +1958,7 @@
         <v>155</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>17</v>
@@ -1991,7 +1972,7 @@
         <v>156</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>17</v>
@@ -2005,7 +1986,7 @@
         <v>157</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>17</v>
@@ -2019,7 +2000,7 @@
         <v>158</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>17</v>
@@ -2033,7 +2014,7 @@
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>17</v>
@@ -2047,7 +2028,7 @@
         <v>160</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>17</v>
@@ -2061,7 +2042,7 @@
         <v>161</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>17</v>
@@ -2075,7 +2056,7 @@
         <v>165</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>20</v>
@@ -2089,7 +2070,7 @@
         <v>166</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>21</v>
@@ -2103,7 +2084,7 @@
         <v>167</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>21</v>
@@ -2117,7 +2098,7 @@
         <v>168</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>21</v>
@@ -2131,7 +2112,7 @@
         <v>169</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>21</v>
@@ -2145,7 +2126,7 @@
         <v>170</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>21</v>
@@ -2164,7 +2145,7 @@
         <v>172</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>21</v>
@@ -2178,7 +2159,7 @@
         <v>173</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>21</v>
@@ -2192,7 +2173,7 @@
         <v>174</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>21</v>
@@ -2211,7 +2192,7 @@
         <v>176</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>21</v>
@@ -2225,7 +2206,7 @@
         <v>179</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>21</v>
@@ -2239,7 +2220,7 @@
         <v>181</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>21</v>
@@ -2253,7 +2234,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>21</v>
@@ -2267,7 +2248,7 @@
         <v>183</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>21</v>
@@ -2281,7 +2262,7 @@
         <v>186</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>13</v>
@@ -2295,7 +2276,7 @@
         <v>190</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>13</v>
@@ -2309,7 +2290,7 @@
         <v>191</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>13</v>
@@ -2323,7 +2304,7 @@
         <v>193</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>13</v>
@@ -2337,7 +2318,7 @@
         <v>194</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>13</v>
@@ -2351,7 +2332,7 @@
         <v>195</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>17</v>
@@ -2365,7 +2346,7 @@
         <v>196</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>17</v>
@@ -2379,7 +2360,7 @@
         <v>197</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>14</v>
@@ -2393,7 +2374,7 @@
         <v>198</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>14</v>
@@ -2407,7 +2388,7 @@
         <v>199</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>14</v>
@@ -2421,7 +2402,7 @@
         <v>200</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>17</v>
@@ -2435,7 +2416,7 @@
         <v>201</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>17</v>
@@ -2449,7 +2430,7 @@
         <v>202</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>17</v>
@@ -2463,7 +2444,7 @@
         <v>203</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>22</v>
@@ -2477,7 +2458,7 @@
         <v>207</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>22</v>
@@ -2491,7 +2472,7 @@
         <v>208</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>22</v>
@@ -2505,7 +2486,7 @@
         <v>209</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
@@ -2519,7 +2500,7 @@
         <v>210</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>17</v>
@@ -2533,7 +2514,7 @@
         <v>216</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>23</v>
@@ -2547,7 +2528,7 @@
         <v>217</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>24</v>
@@ -2561,7 +2542,7 @@
         <v>218</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>22</v>
@@ -2575,7 +2556,7 @@
         <v>219</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>22</v>
@@ -2589,7 +2570,7 @@
         <v>221</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>23</v>
@@ -2603,7 +2584,7 @@
         <v>222</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>25</v>
@@ -2617,7 +2598,7 @@
         <v>223</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -2631,7 +2612,7 @@
         <v>224</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>25</v>
@@ -2645,7 +2626,7 @@
         <v>226</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>17</v>
@@ -2659,7 +2640,7 @@
         <v>228</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>17</v>
@@ -2673,7 +2654,7 @@
         <v>232</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>20</v>
@@ -2687,7 +2668,7 @@
         <v>233</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>20</v>
@@ -2701,7 +2682,7 @@
         <v>234</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>26</v>
@@ -2715,7 +2696,7 @@
         <v>237</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>26</v>
@@ -2729,7 +2710,7 @@
         <v>238</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>26</v>
@@ -2743,7 +2724,7 @@
         <v>242</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>26</v>
@@ -2757,7 +2738,7 @@
         <v>243</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>26</v>
@@ -2771,7 +2752,7 @@
         <v>244</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>26</v>
@@ -2785,7 +2766,7 @@
         <v>247</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>20</v>
@@ -2799,7 +2780,7 @@
         <v>250</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>20</v>
@@ -2813,7 +2794,7 @@
         <v>251</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>27</v>
@@ -2827,7 +2808,7 @@
         <v>252</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>27</v>
@@ -2846,7 +2827,7 @@
         <v>255</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>27</v>
@@ -2865,7 +2846,7 @@
         <v>260</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>27</v>
@@ -2879,7 +2860,7 @@
         <v>261</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>27</v>
@@ -2893,7 +2874,7 @@
         <v>265</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>27</v>
@@ -2907,7 +2888,7 @@
         <v>266</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>27</v>
@@ -2921,7 +2902,7 @@
         <v>267</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>27</v>
@@ -2935,7 +2916,7 @@
         <v>268</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>27</v>
@@ -2949,7 +2930,7 @@
         <v>270</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>27</v>
@@ -2963,7 +2944,7 @@
         <v>271</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>27</v>
@@ -2977,7 +2958,7 @@
         <v>272</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>27</v>
@@ -2991,7 +2972,7 @@
         <v>273</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>27</v>
@@ -3005,7 +2986,7 @@
         <v>276</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>27</v>
@@ -3019,7 +3000,7 @@
         <v>278</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>27</v>
@@ -3033,7 +3014,7 @@
         <v>279</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>27</v>
@@ -3047,7 +3028,7 @@
         <v>280</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>27</v>
@@ -3061,7 +3042,7 @@
         <v>281</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>27</v>
@@ -3075,7 +3056,7 @@
         <v>282</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>27</v>
@@ -3089,7 +3070,7 @@
         <v>283</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>27</v>
@@ -3103,7 +3084,7 @@
         <v>284</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>27</v>
@@ -3117,7 +3098,7 @@
         <v>285</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>27</v>
@@ -3131,7 +3112,7 @@
         <v>286</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>27</v>
@@ -3145,7 +3126,7 @@
         <v>287</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>27</v>
@@ -3159,7 +3140,7 @@
         <v>288</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>27</v>
@@ -3173,7 +3154,7 @@
         <v>289</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>27</v>
@@ -3187,7 +3168,7 @@
         <v>290</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>27</v>
@@ -3201,7 +3182,7 @@
         <v>291</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>27</v>
@@ -3215,7 +3196,7 @@
         <v>292</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>27</v>
@@ -3234,7 +3215,7 @@
         <v>295</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>27</v>
@@ -3248,7 +3229,7 @@
         <v>296</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>27</v>
@@ -3272,7 +3253,7 @@
         <v>299</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>28</v>
@@ -3291,7 +3272,7 @@
         <v>301</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>27</v>
@@ -3305,7 +3286,7 @@
         <v>306</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>29</v>
@@ -3319,7 +3300,7 @@
         <v>307</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>30</v>
@@ -3358,7 +3339,7 @@
         <v>314</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>29</v>
@@ -3372,7 +3353,7 @@
         <v>315</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>31</v>
@@ -3396,7 +3377,7 @@
         <v>318</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>31</v>
@@ -3415,7 +3396,7 @@
         <v>320</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>32</v>
@@ -3429,7 +3410,7 @@
         <v>321</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>32</v>
@@ -3443,7 +3424,7 @@
         <v>322</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>33</v>
@@ -3457,7 +3438,7 @@
         <v>323</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>33</v>
@@ -3471,7 +3452,7 @@
         <v>325</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>27</v>
@@ -3485,7 +3466,7 @@
         <v>326</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>27</v>
@@ -3504,7 +3485,7 @@
         <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>34</v>
@@ -3518,7 +3499,7 @@
         <v>329</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>35</v>
@@ -3532,7 +3513,7 @@
         <v>330</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>36</v>
@@ -3546,7 +3527,7 @@
         <v>331</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>36</v>
@@ -3560,7 +3541,7 @@
         <v>332</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>36</v>
@@ -3579,7 +3560,7 @@
         <v>334</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>34</v>
@@ -3593,7 +3574,7 @@
         <v>335</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>35</v>
@@ -3607,7 +3588,7 @@
         <v>336</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>35</v>
@@ -3621,7 +3602,7 @@
         <v>337</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>35</v>
@@ -3635,7 +3616,7 @@
         <v>338</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>35</v>
@@ -3649,7 +3630,7 @@
         <v>339</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>37</v>
@@ -3663,7 +3644,7 @@
         <v>340</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>37</v>
@@ -3677,7 +3658,7 @@
         <v>341</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>38</v>
@@ -3691,7 +3672,7 @@
         <v>342</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>39</v>
@@ -3705,7 +3686,7 @@
         <v>343</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>39</v>
@@ -3719,7 +3700,7 @@
         <v>344</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>40</v>
@@ -3733,7 +3714,7 @@
         <v>345</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>41</v>
@@ -3747,7 +3728,7 @@
         <v>346</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>41</v>
@@ -3761,7 +3742,7 @@
         <v>347</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>40</v>
@@ -3775,7 +3756,7 @@
         <v>348</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>38</v>
@@ -3789,7 +3770,7 @@
         <v>349</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>38</v>
@@ -3803,7 +3784,7 @@
         <v>350</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>42</v>
@@ -3817,7 +3798,7 @@
         <v>351</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>42</v>
@@ -3831,7 +3812,7 @@
         <v>352</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>42</v>
@@ -3845,7 +3826,7 @@
         <v>353</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>40</v>
@@ -3859,7 +3840,7 @@
         <v>354</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>40</v>
@@ -3873,7 +3854,7 @@
         <v>355</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>41</v>
@@ -3887,7 +3868,7 @@
         <v>356</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>41</v>
@@ -3901,7 +3882,7 @@
         <v>357</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>41</v>
@@ -3915,7 +3896,7 @@
         <v>358</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>40</v>
@@ -3929,7 +3910,7 @@
         <v>359</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>22</v>
@@ -3943,7 +3924,7 @@
         <v>360</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>22</v>
@@ -3957,7 +3938,7 @@
         <v>361</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>38</v>
@@ -3971,7 +3952,7 @@
         <v>362</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>25</v>
@@ -3985,7 +3966,7 @@
         <v>363</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>25</v>
@@ -3999,7 +3980,7 @@
         <v>364</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>20</v>
@@ -4013,7 +3994,7 @@
         <v>365</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>40</v>
@@ -4027,7 +4008,7 @@
         <v>366</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>43</v>
@@ -4041,7 +4022,7 @@
         <v>367</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>25</v>
@@ -4055,7 +4036,7 @@
         <v>368</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>40</v>
@@ -4069,7 +4050,7 @@
         <v>369</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>23</v>
@@ -4083,7 +4064,7 @@
         <v>370</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>23</v>
@@ -4097,7 +4078,7 @@
         <v>371</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>23</v>
@@ -4111,7 +4092,7 @@
         <v>372</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>23</v>
@@ -4125,7 +4106,7 @@
         <v>373</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>41</v>
@@ -4139,7 +4120,7 @@
         <v>374</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>40</v>
@@ -4153,7 +4134,7 @@
         <v>375</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>41</v>
@@ -4167,7 +4148,7 @@
         <v>376</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>17</v>
@@ -4181,7 +4162,7 @@
         <v>377</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>37</v>
@@ -4195,7 +4176,7 @@
         <v>378</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>27</v>
@@ -4209,7 +4190,7 @@
         <v>379</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>27</v>
@@ -4223,7 +4204,7 @@
         <v>380</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>27</v>
@@ -4237,7 +4218,7 @@
         <v>381</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>27</v>
@@ -4251,7 +4232,7 @@
         <v>382</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>27</v>
@@ -4265,7 +4246,7 @@
         <v>383</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>27</v>
@@ -4279,7 +4260,7 @@
         <v>384</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>27</v>
@@ -4293,7 +4274,7 @@
         <v>385</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>27</v>
@@ -4307,7 +4288,7 @@
         <v>386</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>27</v>
@@ -4321,7 +4302,7 @@
         <v>387</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>27</v>
@@ -4345,7 +4326,7 @@
         <v>390</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>27</v>
@@ -4364,7 +4345,7 @@
         <v>392</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>27</v>
@@ -4378,7 +4359,7 @@
         <v>393</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>27</v>
@@ -4392,7 +4373,7 @@
         <v>394</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>27</v>
@@ -4406,7 +4387,7 @@
         <v>395</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>27</v>
@@ -4420,10 +4401,10 @@
         <v>396</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D291" s="1">
         <v>39</v>
@@ -4434,10 +4415,10 @@
         <v>397</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D292" s="1">
         <v>7</v>
@@ -4448,10 +4429,10 @@
         <v>398</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D293" s="1">
         <v>8</v>
@@ -4462,10 +4443,10 @@
         <v>399</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D294" s="1">
         <v>4</v>
@@ -4476,10 +4457,10 @@
         <v>400</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D295" s="1">
         <v>1</v>
@@ -4490,10 +4471,10 @@
         <v>401</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D296" s="1">
         <v>1</v>
@@ -4504,7 +4485,7 @@
         <v>402</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>17</v>
@@ -4518,7 +4499,7 @@
         <v>403</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>11</v>
@@ -4532,7 +4513,7 @@
         <v>404</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>11</v>
@@ -4546,7 +4527,7 @@
         <v>405</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>17</v>
@@ -4565,7 +4546,7 @@
         <v>407</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>17</v>
@@ -4584,7 +4565,7 @@
         <v>409</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>26</v>
@@ -4598,7 +4579,7 @@
         <v>410</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>26</v>
@@ -4612,7 +4593,7 @@
         <v>411</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>26</v>
@@ -4626,7 +4607,7 @@
         <v>412</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>21</v>
@@ -4640,7 +4621,7 @@
         <v>413</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>21</v>
@@ -4654,7 +4635,7 @@
         <v>414</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>22</v>
@@ -4668,7 +4649,7 @@
         <v>415</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>14</v>
@@ -4682,10 +4663,10 @@
         <v>416</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D311" s="1">
         <v>3</v>
@@ -4696,7 +4677,7 @@
         <v>417</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>13</v>
@@ -4710,7 +4691,7 @@
         <v>418</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>13</v>
@@ -4744,7 +4725,7 @@
         <v>423</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>43</v>
@@ -4758,7 +4739,7 @@
         <v>424</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>43</v>
@@ -4772,7 +4753,7 @@
         <v>425</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>43</v>
@@ -4786,7 +4767,7 @@
         <v>426</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>43</v>
@@ -4800,7 +4781,7 @@
         <v>427</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>43</v>
@@ -4814,7 +4795,7 @@
         <v>428</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>43</v>
@@ -4828,7 +4809,7 @@
         <v>429</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>43</v>
@@ -4842,7 +4823,7 @@
         <v>430</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>43</v>
@@ -4856,7 +4837,7 @@
         <v>431</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>43</v>
@@ -4870,7 +4851,7 @@
         <v>432</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>43</v>
@@ -4884,7 +4865,7 @@
         <v>433</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>43</v>
@@ -4898,7 +4879,7 @@
         <v>434</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>43</v>
@@ -4922,7 +4903,7 @@
         <v>437</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>48</v>
@@ -4936,7 +4917,7 @@
         <v>438</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>48</v>
@@ -4950,7 +4931,7 @@
         <v>439</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>48</v>
@@ -4964,7 +4945,7 @@
         <v>440</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>48</v>
@@ -4978,7 +4959,7 @@
         <v>441</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>48</v>
@@ -4992,7 +4973,7 @@
         <v>442</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>49</v>
@@ -5006,7 +4987,7 @@
         <v>443</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>49</v>
@@ -5020,7 +5001,7 @@
         <v>444</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>49</v>
@@ -5034,7 +5015,7 @@
         <v>445</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>50</v>
@@ -5048,7 +5029,7 @@
         <v>446</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>50</v>
@@ -5062,7 +5043,7 @@
         <v>447</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>49</v>
@@ -5076,7 +5057,7 @@
         <v>448</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>50</v>
@@ -5090,7 +5071,7 @@
         <v>449</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>50</v>
@@ -5104,7 +5085,7 @@
         <v>450</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>50</v>
@@ -5118,7 +5099,7 @@
         <v>451</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>50</v>
@@ -5132,7 +5113,7 @@
         <v>452</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>50</v>
@@ -5146,7 +5127,7 @@
         <v>453</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>50</v>
@@ -5160,7 +5141,7 @@
         <v>454</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>50</v>
@@ -5174,7 +5155,7 @@
         <v>455</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>50</v>
@@ -5188,7 +5169,7 @@
         <v>456</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>50</v>
@@ -5202,7 +5183,7 @@
         <v>457</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>51</v>
@@ -5216,7 +5197,7 @@
         <v>458</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>50</v>
@@ -5230,7 +5211,7 @@
         <v>459</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>50</v>
@@ -5244,7 +5225,7 @@
         <v>460</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>52</v>
@@ -5258,7 +5239,7 @@
         <v>461</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>53</v>
@@ -5272,7 +5253,7 @@
         <v>462</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>53</v>
@@ -5286,7 +5267,7 @@
         <v>463</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>52</v>
@@ -5300,7 +5281,7 @@
         <v>464</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>52</v>
@@ -5314,7 +5295,7 @@
         <v>465</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>52</v>
@@ -5328,7 +5309,7 @@
         <v>466</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>52</v>
@@ -5342,7 +5323,7 @@
         <v>467</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>52</v>
@@ -5356,7 +5337,7 @@
         <v>468</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>50</v>
@@ -5370,7 +5351,7 @@
         <v>469</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>51</v>
@@ -5384,7 +5365,7 @@
         <v>470</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>51</v>
@@ -5398,7 +5379,7 @@
         <v>471</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>50</v>
@@ -5412,7 +5393,7 @@
         <v>472</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>50</v>
@@ -5426,7 +5407,7 @@
         <v>473</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>50</v>
@@ -5440,7 +5421,7 @@
         <v>474</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>50</v>
@@ -5454,7 +5435,7 @@
         <v>475</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>50</v>
@@ -5468,7 +5449,7 @@
         <v>476</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>50</v>
@@ -5482,7 +5463,7 @@
         <v>477</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>50</v>
@@ -5496,7 +5477,7 @@
         <v>478</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>50</v>
@@ -5510,7 +5491,7 @@
         <v>479</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>52</v>
@@ -5524,7 +5505,7 @@
         <v>480</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>52</v>
@@ -5538,7 +5519,7 @@
         <v>481</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>52</v>
@@ -5552,7 +5533,7 @@
         <v>482</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>52</v>
@@ -5566,7 +5547,7 @@
         <v>483</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>52</v>
@@ -5580,7 +5561,7 @@
         <v>484</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>52</v>
@@ -5594,7 +5575,7 @@
         <v>485</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>52</v>
@@ -5608,7 +5589,7 @@
         <v>486</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>52</v>
@@ -5622,7 +5603,7 @@
         <v>487</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>52</v>
@@ -5636,7 +5617,7 @@
         <v>488</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>52</v>
@@ -5655,7 +5636,7 @@
         <v>490</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>50</v>
@@ -5669,7 +5650,7 @@
         <v>491</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>50</v>
@@ -5683,7 +5664,7 @@
         <v>492</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>50</v>
@@ -5697,7 +5678,7 @@
         <v>493</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>50</v>
@@ -5711,7 +5692,7 @@
         <v>494</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>50</v>
@@ -5725,7 +5706,7 @@
         <v>495</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>50</v>
@@ -5739,7 +5720,7 @@
         <v>496</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>52</v>
@@ -5753,7 +5734,7 @@
         <v>497</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>52</v>
@@ -5767,7 +5748,7 @@
         <v>498</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>52</v>
@@ -5781,7 +5762,7 @@
         <v>499</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>52</v>
@@ -5795,7 +5776,7 @@
         <v>500</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>52</v>
@@ -5809,7 +5790,7 @@
         <v>501</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>52</v>
@@ -5823,7 +5804,7 @@
         <v>502</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>52</v>
@@ -5837,7 +5818,7 @@
         <v>503</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>52</v>
@@ -5851,7 +5832,7 @@
         <v>504</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>52</v>
@@ -5865,7 +5846,7 @@
         <v>505</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>52</v>
@@ -5879,7 +5860,7 @@
         <v>506</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>52</v>
@@ -5893,7 +5874,7 @@
         <v>507</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>33</v>
@@ -5907,7 +5888,7 @@
         <v>508</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>49</v>
@@ -5921,7 +5902,7 @@
         <v>509</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>49</v>
@@ -5935,7 +5916,7 @@
         <v>510</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>53</v>
@@ -5949,7 +5930,7 @@
         <v>511</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>50</v>
